--- a/biology/Botanique/Ocotea/Ocotea.xlsx
+++ b/biology/Botanique/Ocotea/Ocotea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocotea est un genre de plantes de la famille des Lauraceae.
-Il a été décrit en 1775 par le botaniste Jean-Baptiste-Christian Fusée-Aublet dans son œuvre Histoire des plantes de la Guiane françoise (tome second, page 780 et illustré au tome quatrième, planche 310)[2].
+Il a été décrit en 1775 par le botaniste Jean-Baptiste-Christian Fusée-Aublet dans son œuvre Histoire des plantes de la Guiane françoise (tome second, page 780 et illustré au tome quatrième, planche 310).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres suivants ont été fusionnés dans le genre Ocotea et en sont donc synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres suivants ont été fusionnés dans le genre Ocotea et en sont donc synonymes :
 Aperiphracta Nees ex Meisn. in A.P.de Candolle, Prodr. 15(1): 111 (1864)
 Balanopsis Raf. in Sylva Tellur.: 134 (1838)
 Borbonia Adans. in Fam. Pl. 2: 341 (1763), nom. illeg.
@@ -561,9 +575,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 septembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 septembre 2017) :
 Ocotea abbreviata Schwacke &amp; Mez
 Ocotea acarina C.K. Allen
 Ocotea aciphylla (Nees) Mez
@@ -1077,7 +1093,7 @@
 Ocotea yutajensis C. K. Allen
 Ocotea zahamenensis van der Werff
 Ocotea zoque Lorea-Hern.
-Selon GRIN            (17 septembre 2017)[5] :
+Selon GRIN            (17 septembre 2017) :
 Ocotea acutifolia (Nees) Mez
 Ocotea arechavaletae Mez
 Ocotea auriculiformis Kosterm.
@@ -1099,7 +1115,7 @@
 Ocotea regeliana (Meisn.) Mez
 Ocotea spathulata Mez
 Ocotea usambarensis Engl.
-Selon ITIS      (17 septembre 2017)[6] :
+Selon ITIS      (17 septembre 2017) :
 Ocotea cuneata (Griseb.) M. Gómez
 Ocotea floribunda (Sw.) Mez
 Ocotea foeniculacea Mez
@@ -1109,7 +1125,7 @@
 Ocotea portoricensis Mez
 Ocotea spathulata Mez
 Ocotea wrightii (Meisn.) Mez
-Selon NCBI  (17 septembre 2017)[7] :
+Selon NCBI  (17 septembre 2017) :
 Ocotea aciphylla
 Ocotea amazonica
 Ocotea argyrophylla
@@ -1193,7 +1209,7 @@
 Ocotea veraguensis
 Ocotea whitei
 Ocotea wrightii
-Selon The Plant List            (17 septembre 2017)[8] :
+Selon The Plant List            (17 septembre 2017) :
 Ocotea abbreviata Schwacke &amp; Mez
 Ocotea aciphylla (Nees &amp; Mart.) Mez
 Ocotea acuminatissima (Lundell) Rohwer
@@ -1622,7 +1638,7 @@
 Ocotea yutajensis C.K.Allen
 Ocotea zahamenensis van der Werff
 Ocotea zoque Lorea-Hern.
-Selon Tropicos                                           (17 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Ocotea abbreviata Schwacke &amp; Mez
 Ocotea acarina C.K. Allen
 Ocotea aciphylla (Nees &amp; Mart.) Mez
@@ -1665,7 +1681,8 @@
 Ocotea arechavaletae Mez
 Ocotea arenaensis R.L. Brooks
 Ocotea arenaria van der Werff
-Ocotea arenicola L.C.S. Assis &amp; M</t>
+Ocotea arenicola L.C.S. Assis &amp; Mello-Silva
+Ocotea </t>
         </is>
       </c>
     </row>
